--- a/data/well_depth.xlsx
+++ b/data/well_depth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiglejm/Documents/Belmont/Code/Backup_AWS_Jan2022/saudi-arabia/interactive-sa-1d/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiglejm/Documents/Belmont/Code/Backup_AWS_Jan2022/saudi-arabia/jarufah-basin-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F010E-4A97-DA4C-8EAA-DA15CAD6E0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142FECD-0F62-0640-A41E-0E0B5DE9122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{CE146ABC-E5D5-3842-BAD1-429056E88BE5}"/>
+    <workbookView xWindow="8340" yWindow="3620" windowWidth="32500" windowHeight="22460" xr2:uid="{CE146ABC-E5D5-3842-BAD1-429056E88BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>Depth</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Superficial</t>
   </si>
@@ -148,14 +145,23 @@
     <t>Top Basement</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <t>Formation Name</t>
+  </si>
+  <si>
+    <t>T!PS Begin Age (Ma)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +188,14 @@
       <color rgb="FF000000"/>
       <name val="ArialNarrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,11 +217,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,366 +540,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146531F2-968D-A740-A37A-F4C000D67C52}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="2" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="2" t="s">
+      <c r="B4">
+        <v>11.6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>48.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>55.8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>381.17929759704248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>65.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>563.92169383296925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5">
+        <v>938.85867921357749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1266.5347000504116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1622.5672996135104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>93.5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1723.3906906402285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>97</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1856.9816837506301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>101.5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1905.5029406822382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>107.5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1911.8044026214081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>111</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1981.120483952277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>114</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2232.5488153251554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>127</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2238.8502772643251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>134</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2333.3722063518735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>137</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2613.7872626449334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>142</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2642.1438413711981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>143</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2810.3928751470339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>144</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2933.9015291547639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>145</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2963.5184002688625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>146</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2974.8610317593684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>147</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2992.5051251890441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>148</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2998.1764409342968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>149</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3040.3962359267352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>150</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3052.9991598050751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>151</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3066.8623760712489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>152</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3083.2461771130907</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>154</v>
+      </c>
+      <c r="C33" s="5">
+        <v>3306.9480759536218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3379.4148882540753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>157.5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3385.716350193245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>159</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3417.2236598890945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>381.17929759704248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>563.92169383296925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>938.85867921357749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1266.5347000504116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1622.5672996135104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1723.3906906402285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1856.9816837506301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1905.5029406822382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1911.8044026214081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1981.120483952277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2232.5488153251554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2238.8502772643251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2333.3722063518735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2613.7872626449334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2642.1438413711981</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2810.3928751470339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2933.9015291547639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2963.5184002688625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2974.8610317593684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2992.5051251890441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2998.1764409342968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3040.3962359267352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3052.9991598050751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3066.8623760712489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3083.2461771130907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3306.9480759536218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3379.4148882540753</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3385.716350193245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3417.2236598890945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18">
-      <c r="A37" s="2" t="s">
+      <c r="B37">
+        <v>163</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3426.6758527978495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="1">
-        <v>3426.6758527978495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18">
-      <c r="A38" s="2" t="s">
+      <c r="B38">
+        <v>165</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3458.183162493699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18">
+      <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="1">
-        <v>3458.183162493699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="2" t="s">
+      <c r="B39">
+        <v>168</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3469.5257939842049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18">
+      <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="1">
-        <v>3469.5257939842049</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18">
-      <c r="A40" s="2" t="s">
+      <c r="B40">
+        <v>183</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3510.4852965888094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18">
+      <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="1">
-        <v>3510.4852965888094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18">
-      <c r="A41" s="2" t="s">
+      <c r="B41">
+        <v>245</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3938.4852965888094</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18">
+      <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="1">
-        <v>3938.4852965888094</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18">
-      <c r="A42" s="2" t="s">
+      <c r="B42">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4695.4852965888094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="1">
-        <v>4695.4852965888094</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18">
-      <c r="A43" s="2" t="s">
+      <c r="B43">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4866.4852965888094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B43">
-        <v>4866.4852965888094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
+      <c r="B44" s="1"/>
+      <c r="C44" s="4">
         <v>5816.4852965888094</v>
       </c>
     </row>
